--- a/data/jadwal_sidang/Jadwal Sidang Terjadwal 1 3 dan reg Juli 2020 v9 Juli 2020_pwd.xlsx
+++ b/data/jadwal_sidang/Jadwal Sidang Terjadwal 1 3 dan reg Juli 2020 v9 Juli 2020_pwd.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,86 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -487,7 +419,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Waktu</t>
+          <t>Tanggal</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -497,7 +429,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Keterangan</t>
+          <t>Skema sidang</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -580,7 +512,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>j481dK</t>
+          <t>3kQhCo</t>
         </is>
       </c>
     </row>
@@ -654,7 +586,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>IBrGgS</t>
+          <t>qmCLTU</t>
         </is>
       </c>
     </row>
@@ -727,7 +659,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>IYtWd3</t>
+          <t>HSGD4N</t>
         </is>
       </c>
     </row>
@@ -800,7 +732,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Gfzgbt</t>
+          <t>o2pwOk</t>
         </is>
       </c>
     </row>
@@ -874,7 +806,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>RVmwV5</t>
+          <t>ijpzyJ</t>
         </is>
       </c>
     </row>
@@ -945,7 +877,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>K1Uakr</t>
+          <t>lurvbj</t>
         </is>
       </c>
     </row>
@@ -1014,7 +946,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>YzryIA</t>
+          <t>LPu7hX</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1019,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>xC9aNb</t>
+          <t>rDnbD3</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1090,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>iG7Sv4</t>
+          <t>3Prn8e</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1159,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>5BXNif</t>
+          <t>jJXkbU</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1230,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>kCLWo2</t>
+          <t>wW8v9E</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1303,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>PDkX1a</t>
+          <t>wE8Ubb</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1377,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>AXpHDU</t>
+          <t>28TBw1</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1448,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>tt5Qzs</t>
+          <t>ggMqtz</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1519,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>C40mEd</t>
+          <t>RRY2TP</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1592,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>wzQt5p</t>
+          <t>mrXpTo</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1663,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>bdoXZX</t>
+          <t>OcxmId</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1732,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>564ro2</t>
+          <t>KOHkNO</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1805,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>VadDAS</t>
+          <t>AReLo5</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1878,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>snwml7</t>
+          <t>H7wN7H</t>
         </is>
       </c>
     </row>
@@ -2015,7 +1947,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>ymYCib</t>
+          <t>az8BZp</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2018,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Q1UHUr</t>
+          <t>vlZOYN</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2089,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>jqT8DW</t>
+          <t>wjOkb2</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2162,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Whx2Hs</t>
+          <t>AiSjJO</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2235,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>e99O9X</t>
+          <t>LEFjiw</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2306,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>EHz3Fp</t>
+          <t>vqYdDM</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2377,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>6CGee8</t>
+          <t>KkZZzG</t>
         </is>
       </c>
     </row>
@@ -2518,7 +2450,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>uv3MPF</t>
+          <t>VuKEAS</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2523,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>zTfuui</t>
+          <t>qRyat0</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2596,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>n8Vyyw</t>
+          <t>qkAZZZ</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2669,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>9F1yr2</t>
+          <t>aZ0WPs</t>
         </is>
       </c>
     </row>
@@ -2810,7 +2742,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>tz550E</t>
+          <t>pe5jBe</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2813,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>ahTyUQ</t>
+          <t>1RX0Rq</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2886,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>T9Qp6a</t>
+          <t>XOrExp</t>
         </is>
       </c>
     </row>
@@ -3027,7 +2959,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>YoXvw7</t>
+          <t>AB2UwC</t>
         </is>
       </c>
     </row>
@@ -3100,7 +3032,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>LiCrjk</t>
+          <t>REJkN6</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3105,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>HsjvYP</t>
+          <t>3cAY8A</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3178,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>GeEwAR</t>
+          <t>s8Lf1g</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3249,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>GQ5Hoz</t>
+          <t>jwMXi1</t>
         </is>
       </c>
     </row>
@@ -3390,7 +3322,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>eE4HNJ</t>
+          <t>AXEy9s</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3393,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>aC3QKf</t>
+          <t>hzwgUT</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3466,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>5KRjxo</t>
+          <t>DRWo1A</t>
         </is>
       </c>
     </row>
@@ -3607,7 +3539,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>LbHvsP</t>
+          <t>WWabHH</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3610,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>71MiDJ</t>
+          <t>8wADs8</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3683,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>YSHayv</t>
+          <t>shCAsR</t>
         </is>
       </c>
     </row>
@@ -3820,7 +3752,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>upMmTj</t>
+          <t>zraMCK</t>
         </is>
       </c>
     </row>
@@ -3893,7 +3825,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>kR7A91</t>
+          <t>Zg49xY</t>
         </is>
       </c>
     </row>
@@ -3962,7 +3894,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>BbN3kK</t>
+          <t>vyUmJN</t>
         </is>
       </c>
     </row>
@@ -4035,7 +3967,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>lu9XU3</t>
+          <t>5Yv17H</t>
         </is>
       </c>
     </row>
@@ -4108,7 +4040,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>CPIJeA</t>
+          <t>GqaXex</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4113,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>yvH35M</t>
+          <t>dcVBWU</t>
         </is>
       </c>
     </row>
@@ -4252,7 +4184,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>pqRlvc</t>
+          <t>hFxvuW</t>
         </is>
       </c>
     </row>
@@ -4323,7 +4255,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>IT9XU3</t>
+          <t>JdboPx</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4328,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>GRWNwk</t>
+          <t>99pKbd</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4399,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>WOjj2W</t>
+          <t>nAh4I2</t>
         </is>
       </c>
     </row>
@@ -4538,7 +4470,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>MWDzWh</t>
+          <t>c0UaGr</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4543,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>03HcKg</t>
+          <t>iQecZ8</t>
         </is>
       </c>
     </row>
@@ -4680,7 +4612,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Ptlv3H</t>
+          <t>5ENQm2</t>
         </is>
       </c>
     </row>
@@ -4753,7 +4685,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>hU6Zm1</t>
+          <t>wejnNa</t>
         </is>
       </c>
     </row>
@@ -4826,7 +4758,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>k4WZVF</t>
+          <t>HObtuE</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4829,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>J1d6Rg</t>
+          <t>RUoX3b</t>
         </is>
       </c>
     </row>
@@ -4970,7 +4902,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>JTShrn</t>
+          <t>Bhj5ox</t>
         </is>
       </c>
     </row>
@@ -5043,7 +4975,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>9nNBLO</t>
+          <t>QLDVTe</t>
         </is>
       </c>
     </row>
@@ -5116,7 +5048,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Q2QZ4p</t>
+          <t>nxYP4F</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5121,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>oUeSZZ</t>
+          <t>reIkbp</t>
         </is>
       </c>
     </row>
@@ -5262,7 +5194,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>vkroht</t>
+          <t>XNn0BI</t>
         </is>
       </c>
     </row>
@@ -5331,7 +5263,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>5znhSe</t>
+          <t>G6uoDd</t>
         </is>
       </c>
     </row>
@@ -5404,7 +5336,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>fKNCHt</t>
+          <t>KEkZTa</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5407,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>tgZBD6</t>
+          <t>BSUuAV</t>
         </is>
       </c>
     </row>
@@ -5548,7 +5480,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>KFK8K6</t>
+          <t>lWEnHH</t>
         </is>
       </c>
     </row>
@@ -5619,7 +5551,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>GbBSMb</t>
+          <t>V04sHj</t>
         </is>
       </c>
     </row>
@@ -5690,7 +5622,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>wYbNrW</t>
+          <t>zwSFZ1</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5695,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>HkuZNG</t>
+          <t>61AFgG</t>
         </is>
       </c>
     </row>
@@ -5834,7 +5766,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>FBnMRL</t>
+          <t>wUmbYH</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5839,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>GqyhT4</t>
+          <t>X9h29Z</t>
         </is>
       </c>
     </row>
@@ -5980,7 +5912,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>5Ivf4T</t>
+          <t>bUojnp</t>
         </is>
       </c>
     </row>
@@ -6051,7 +5983,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>0ZWBjG</t>
+          <t>6rv3oP</t>
         </is>
       </c>
     </row>
@@ -6124,7 +6056,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>tCfHcR</t>
+          <t>4iMlIU</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6129,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>06wPaA</t>
+          <t>9W6MsP</t>
         </is>
       </c>
     </row>
@@ -6270,7 +6202,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>9aAoCq</t>
+          <t>ueQow7</t>
         </is>
       </c>
     </row>
@@ -6343,7 +6275,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>VEw7O6</t>
+          <t>EvNTEu</t>
         </is>
       </c>
     </row>
@@ -6414,7 +6346,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>WkcGbU</t>
+          <t>06aZuz</t>
         </is>
       </c>
     </row>
@@ -6485,7 +6417,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>wf7VOS</t>
+          <t>Fnb9AE</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6488,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>4bH6bo</t>
+          <t>hUoy3C</t>
         </is>
       </c>
     </row>
@@ -6629,7 +6561,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>4hyaZY</t>
+          <t>B7ecFR</t>
         </is>
       </c>
     </row>
@@ -6700,7 +6632,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>hgpoR7</t>
+          <t>tXCiqO</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6705,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>u4I3we</t>
+          <t>SCFB3H</t>
         </is>
       </c>
     </row>
@@ -6842,7 +6774,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>0RfOMx</t>
+          <t>OF7ce1</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6843,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>0WAfSW</t>
+          <t>WttUhh</t>
         </is>
       </c>
     </row>
@@ -6980,7 +6912,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Z9HTKW</t>
+          <t>FpgKto</t>
         </is>
       </c>
     </row>
@@ -7053,7 +6985,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>5VjCOK</t>
+          <t>tZHpWW</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7058,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>W151gW</t>
+          <t>KuBGFL</t>
         </is>
       </c>
     </row>
@@ -7199,7 +7131,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>BquEUW</t>
+          <t>wy0S69</t>
         </is>
       </c>
     </row>
@@ -7272,7 +7204,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>GfW5Rb</t>
+          <t>TECa4Q</t>
         </is>
       </c>
     </row>
@@ -7345,7 +7277,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>sAeeNL</t>
+          <t>XKkmu5</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7348,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>p7R6uc</t>
+          <t>UHE1Aa</t>
         </is>
       </c>
     </row>
@@ -7485,7 +7417,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>1sm6Vy</t>
+          <t>cQT2LC</t>
         </is>
       </c>
     </row>
@@ -7554,7 +7486,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>UYPA0T</t>
+          <t>8c5r5c</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7558,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Lk4F5I</t>
+          <t>kZOyzf</t>
         </is>
       </c>
     </row>
@@ -7697,7 +7629,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>fGw3tV</t>
+          <t>JndCxH</t>
         </is>
       </c>
     </row>
@@ -7770,7 +7702,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>nX2mOJ</t>
+          <t>tpHZRl</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7773,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>WxgOWk</t>
+          <t>dQ3AdY</t>
         </is>
       </c>
     </row>
@@ -7914,7 +7846,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>eCL4c1</t>
+          <t>t9rBLi</t>
         </is>
       </c>
     </row>
@@ -7987,7 +7919,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>ojt6ro</t>
+          <t>06XvGU</t>
         </is>
       </c>
     </row>
@@ -8060,7 +7992,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>FEjKTG</t>
+          <t>0riTVW</t>
         </is>
       </c>
     </row>
@@ -8131,7 +8063,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>sYCyP5</t>
+          <t>Y3kv2P</t>
         </is>
       </c>
     </row>
@@ -8202,7 +8134,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>19VySL</t>
+          <t>82kNNL</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8205,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>153u2W</t>
+          <t>VzqaMT</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8278,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>DIrFO1</t>
+          <t>InNQez</t>
         </is>
       </c>
     </row>
@@ -8419,7 +8351,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>vjal7c</t>
+          <t>XeAdsC</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8422,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Y0bUjW</t>
+          <t>NOyJya</t>
         </is>
       </c>
     </row>
@@ -8563,7 +8495,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>SOgaqE</t>
+          <t>RIoQVH</t>
         </is>
       </c>
     </row>
@@ -8634,7 +8566,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>V1h9eF</t>
+          <t>nwg44n</t>
         </is>
       </c>
     </row>
@@ -8707,7 +8639,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>iZujFx</t>
+          <t>VRJyqQ</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8710,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>ebID5k</t>
+          <t>6exf1Q</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8783,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>5IjybH</t>
+          <t>sTChug</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8856,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>mrCuHl</t>
+          <t>mGYO2P</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8929,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>aqOyBd</t>
+          <t>rHM42w</t>
         </is>
       </c>
     </row>
@@ -9070,7 +9002,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Py8sc8</t>
+          <t>8vTQtl</t>
         </is>
       </c>
     </row>
@@ -9143,7 +9075,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>OMP5g1</t>
+          <t>XKjtVj</t>
         </is>
       </c>
     </row>
@@ -9214,7 +9146,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>vc7n46</t>
+          <t>aVjVEs</t>
         </is>
       </c>
     </row>
@@ -9283,7 +9215,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>xxMiE6</t>
+          <t>EB27Wb</t>
         </is>
       </c>
     </row>
@@ -9352,7 +9284,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>kCc5AL</t>
+          <t>tb0YwW</t>
         </is>
       </c>
     </row>
@@ -9424,7 +9356,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>TDKpGU</t>
+          <t>tEihot</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9429,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Cx0WwT</t>
+          <t>ZvH0eF</t>
         </is>
       </c>
     </row>
@@ -9570,7 +9502,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>uZJGVT</t>
+          <t>MfFjpJ</t>
         </is>
       </c>
     </row>
@@ -9643,7 +9575,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>UpBdK9</t>
+          <t>EzXsmB</t>
         </is>
       </c>
     </row>
@@ -9714,7 +9646,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>hJsIRu</t>
+          <t>E3AqT4</t>
         </is>
       </c>
     </row>
@@ -9785,7 +9717,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>vHZIvB</t>
+          <t>h4b4pp</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9790,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>VlqINy</t>
+          <t>PqFj1U</t>
         </is>
       </c>
     </row>
@@ -9929,7 +9861,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>xUfg9D</t>
+          <t>bu7cPR</t>
         </is>
       </c>
     </row>
@@ -10000,7 +9932,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>ncZFqQ</t>
+          <t>tP9hoz</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10003,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>3ddUeY</t>
+          <t>qJt4wm</t>
         </is>
       </c>
     </row>
@@ -10144,7 +10076,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>rqoQbB</t>
+          <t>ryQybw</t>
         </is>
       </c>
     </row>
@@ -10215,7 +10147,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>NBEBYY</t>
+          <t>c3PnL7</t>
         </is>
       </c>
     </row>
@@ -10288,7 +10220,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>I2rUVG</t>
+          <t>0ooVV0</t>
         </is>
       </c>
     </row>
@@ -10359,7 +10291,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>lHiaFK</t>
+          <t>kVIIOf</t>
         </is>
       </c>
     </row>
@@ -10430,7 +10362,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>KfPmNE</t>
+          <t>3AOCX4</t>
         </is>
       </c>
     </row>
@@ -10503,7 +10435,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>lgLt32</t>
+          <t>bO9uhg</t>
         </is>
       </c>
     </row>
@@ -10574,7 +10506,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>a2k19I</t>
+          <t>BIGkdM</t>
         </is>
       </c>
     </row>
@@ -10645,7 +10577,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>AuCM3S</t>
+          <t>eabImJ</t>
         </is>
       </c>
     </row>
@@ -10718,7 +10650,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>J1EpKq</t>
+          <t>8Vf5RA</t>
         </is>
       </c>
     </row>
@@ -10791,7 +10723,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>W13SrC</t>
+          <t>yWKURD</t>
         </is>
       </c>
     </row>
@@ -10864,7 +10796,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>pNHaao</t>
+          <t>pYhvZc</t>
         </is>
       </c>
     </row>
@@ -10935,7 +10867,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>xF64OD</t>
+          <t>DvaKqy</t>
         </is>
       </c>
     </row>
@@ -11006,7 +10938,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>0l7fDw</t>
+          <t>XdIa7L</t>
         </is>
       </c>
     </row>
@@ -11079,7 +11011,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>VVinYB</t>
+          <t>RkNV3q</t>
         </is>
       </c>
     </row>
@@ -11152,7 +11084,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>faM6sA</t>
+          <t>MzNj37</t>
         </is>
       </c>
     </row>
@@ -11223,7 +11155,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>cOcHlV</t>
+          <t>m5YYug</t>
         </is>
       </c>
     </row>
@@ -11294,7 +11226,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>WBAf3Z</t>
+          <t>K6Xcp6</t>
         </is>
       </c>
     </row>
@@ -11368,7 +11300,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>O5FXzj</t>
+          <t>f0RKHU</t>
         </is>
       </c>
     </row>
@@ -11437,7 +11369,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>5y1jtM</t>
+          <t>lnmfvh</t>
         </is>
       </c>
     </row>
@@ -11510,7 +11442,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>ifZDaJ</t>
+          <t>7RXvZI</t>
         </is>
       </c>
     </row>
@@ -11581,7 +11513,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>9T1XbH</t>
+          <t>4z6vW6</t>
         </is>
       </c>
     </row>
@@ -11654,7 +11586,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>YpNAk9</t>
+          <t>TamS55</t>
         </is>
       </c>
     </row>
@@ -11725,7 +11657,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>7NAhLa</t>
+          <t>fRiR4T</t>
         </is>
       </c>
     </row>
@@ -11798,7 +11730,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>jru8Hl</t>
+          <t>cI3RqI</t>
         </is>
       </c>
     </row>
@@ -11871,7 +11803,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>ASXpcV</t>
+          <t>RELgdd</t>
         </is>
       </c>
     </row>
@@ -11940,7 +11872,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>n6FuFg</t>
+          <t>L2a9WZ</t>
         </is>
       </c>
     </row>
@@ -12013,7 +11945,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>9eym02</t>
+          <t>JRCzTG</t>
         </is>
       </c>
     </row>
@@ -12084,7 +12016,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>zMoecD</t>
+          <t>0kA89S</t>
         </is>
       </c>
     </row>
@@ -12155,7 +12087,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>U5nI2c</t>
+          <t>HlhQhX</t>
         </is>
       </c>
     </row>
@@ -12228,7 +12160,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>mhgz3S</t>
+          <t>aAKgfw</t>
         </is>
       </c>
     </row>
@@ -12301,7 +12233,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>koCqNo</t>
+          <t>BJJz5P</t>
         </is>
       </c>
     </row>
@@ -12374,7 +12306,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>hK2WkI</t>
+          <t>TjEFrv</t>
         </is>
       </c>
     </row>
@@ -12447,7 +12379,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>q08t1d</t>
+          <t>9PAFXD</t>
         </is>
       </c>
     </row>
@@ -12519,7 +12451,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>WpVvpb</t>
+          <t>bGF8MB</t>
         </is>
       </c>
     </row>
@@ -12592,7 +12524,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>ePORWe</t>
+          <t>DlAX8K</t>
         </is>
       </c>
     </row>
@@ -12663,7 +12595,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>IPFQHQ</t>
+          <t>cCRKLM</t>
         </is>
       </c>
     </row>
@@ -12735,7 +12667,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>pbx70c</t>
+          <t>DXzYWy</t>
         </is>
       </c>
     </row>
@@ -12808,7 +12740,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>VsOCsD</t>
+          <t>nsjcaa</t>
         </is>
       </c>
     </row>
@@ -12877,7 +12809,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>iweO8F</t>
+          <t>k5YWPq</t>
         </is>
       </c>
     </row>
@@ -12946,7 +12878,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>AzyCoG</t>
+          <t>JapNQn</t>
         </is>
       </c>
     </row>
@@ -13019,7 +12951,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>COWdyl</t>
+          <t>qKfwjb</t>
         </is>
       </c>
     </row>
@@ -13092,7 +13024,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>31V9tE</t>
+          <t>1vXJd0</t>
         </is>
       </c>
     </row>
@@ -13163,7 +13095,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>r8FpqL</t>
+          <t>rDCHjY</t>
         </is>
       </c>
     </row>
@@ -13236,7 +13168,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>EahZXb</t>
+          <t>UZpO0a</t>
         </is>
       </c>
     </row>
@@ -13309,7 +13241,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>YeVb9s</t>
+          <t>fj6P4G</t>
         </is>
       </c>
     </row>
@@ -13383,7 +13315,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>3Ccmig</t>
+          <t>58UHZY</t>
         </is>
       </c>
     </row>
@@ -13456,7 +13388,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>GuKJk4</t>
+          <t>bxiug9</t>
         </is>
       </c>
     </row>
@@ -13527,7 +13459,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>ngNYTF</t>
+          <t>um6rQP</t>
         </is>
       </c>
     </row>
@@ -13600,7 +13532,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>VgmXnJ</t>
+          <t>YzqXnH</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13605,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>U49ce6</t>
+          <t>GztFAS</t>
         </is>
       </c>
     </row>
@@ -13744,7 +13676,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>x61FJM</t>
+          <t>OmcL44</t>
         </is>
       </c>
     </row>
@@ -13817,7 +13749,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Psk9P7</t>
+          <t>UV4Q3D</t>
         </is>
       </c>
     </row>
@@ -13888,7 +13820,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>LdcUcp</t>
+          <t>T6lTmK</t>
         </is>
       </c>
     </row>
@@ -13961,7 +13893,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>lIMzrj</t>
+          <t>DzkX9y</t>
         </is>
       </c>
     </row>
@@ -14032,7 +13964,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>KYEyg0</t>
+          <t>IhtwbO</t>
         </is>
       </c>
     </row>
@@ -14105,7 +14037,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>BFzpOr</t>
+          <t>q5ZvDC</t>
         </is>
       </c>
     </row>
@@ -14178,7 +14110,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>0vmiWN</t>
+          <t>YIzDIo</t>
         </is>
       </c>
     </row>
@@ -14249,7 +14181,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>sdAu92</t>
+          <t>vs8a9T</t>
         </is>
       </c>
     </row>
@@ -14320,7 +14252,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>I7SBlt</t>
+          <t>cRkUGC</t>
         </is>
       </c>
     </row>
@@ -14391,7 +14323,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>e9oZuz</t>
+          <t>3u8bnF</t>
         </is>
       </c>
     </row>
@@ -14464,7 +14396,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>XGSrm4</t>
+          <t>h9WuXD</t>
         </is>
       </c>
     </row>
@@ -14538,7 +14470,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>ecEyyS</t>
+          <t>KrBo5l</t>
         </is>
       </c>
     </row>
@@ -14609,7 +14541,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>rrhYYV</t>
+          <t>LYCogq</t>
         </is>
       </c>
     </row>
@@ -14682,7 +14614,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>1lu1SZ</t>
+          <t>YVOfSG</t>
         </is>
       </c>
     </row>
@@ -14753,7 +14685,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>yXBBnF</t>
+          <t>3evd3v</t>
         </is>
       </c>
     </row>
@@ -14824,7 +14756,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>JjFxCq</t>
+          <t>61nYYL</t>
         </is>
       </c>
     </row>
@@ -14893,7 +14825,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>NT0W1y</t>
+          <t>Y6g1WV</t>
         </is>
       </c>
     </row>
@@ -14966,7 +14898,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>9KD6yK</t>
+          <t>uZ0Lu2</t>
         </is>
       </c>
     </row>
@@ -15039,7 +14971,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>3Miqvu</t>
+          <t>St4JZ5</t>
         </is>
       </c>
     </row>
@@ -15112,7 +15044,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>KpW3zn</t>
+          <t>v3tXSW</t>
         </is>
       </c>
     </row>
@@ -15181,7 +15113,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>tJsvK9</t>
+          <t>8yR4KP</t>
         </is>
       </c>
     </row>
@@ -15250,7 +15182,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>eh21K7</t>
+          <t>9iva2t</t>
         </is>
       </c>
     </row>
@@ -15321,7 +15253,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>OM77FB</t>
+          <t>c8iuMT</t>
         </is>
       </c>
     </row>
@@ -15394,7 +15326,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>ldbqLz</t>
+          <t>41VED9</t>
         </is>
       </c>
     </row>
@@ -15467,7 +15399,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>YSO40r</t>
+          <t>i3JJso</t>
         </is>
       </c>
     </row>
@@ -15540,7 +15472,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>WSMBjz</t>
+          <t>uMXA7s</t>
         </is>
       </c>
     </row>
@@ -15613,7 +15545,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>dOP8Pt</t>
+          <t>nxTCUQ</t>
         </is>
       </c>
     </row>
@@ -15686,7 +15618,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>1VhVPQ</t>
+          <t>lzAf2y</t>
         </is>
       </c>
     </row>
@@ -15758,7 +15690,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>lD8Zfl</t>
+          <t>KuP8Cg</t>
         </is>
       </c>
     </row>
@@ -15829,7 +15761,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>M9k3eC</t>
+          <t>mLza5g</t>
         </is>
       </c>
     </row>
@@ -15900,7 +15832,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>wJFTlE</t>
+          <t>iznNJQ</t>
         </is>
       </c>
     </row>
@@ -15973,7 +15905,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>00xorV</t>
+          <t>D7lAaL</t>
         </is>
       </c>
     </row>
@@ -16046,7 +15978,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>l7K5c5</t>
+          <t>tVutMI</t>
         </is>
       </c>
     </row>
@@ -16119,7 +16051,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>enO1We</t>
+          <t>wgfvUT</t>
         </is>
       </c>
     </row>
@@ -16190,7 +16122,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>wWMqQd</t>
+          <t>3gVaff</t>
         </is>
       </c>
     </row>
@@ -16261,7 +16193,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>h0g1jz</t>
+          <t>Q7bFhf</t>
         </is>
       </c>
     </row>
@@ -16332,7 +16264,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>mgwGj5</t>
+          <t>nACsVR</t>
         </is>
       </c>
     </row>
@@ -16405,7 +16337,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>F5SoYK</t>
+          <t>loNekX</t>
         </is>
       </c>
     </row>
@@ -16478,7 +16410,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>GKmOoG</t>
+          <t>G1hUzz</t>
         </is>
       </c>
     </row>
@@ -16551,7 +16483,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>r5a4A9</t>
+          <t>yOqH3C</t>
         </is>
       </c>
     </row>
@@ -16624,7 +16556,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>bgycvg</t>
+          <t>Dw2FYO</t>
         </is>
       </c>
     </row>
@@ -16697,7 +16629,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>UZiKNq</t>
+          <t>huahkK</t>
         </is>
       </c>
     </row>
@@ -16768,7 +16700,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>EDXhVa</t>
+          <t>nOBRL9</t>
         </is>
       </c>
     </row>
@@ -16841,7 +16773,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Op7DoB</t>
+          <t>x8j9W7</t>
         </is>
       </c>
     </row>
@@ -16915,7 +16847,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>DJw7LJ</t>
+          <t>HOix2J</t>
         </is>
       </c>
     </row>
@@ -16984,7 +16916,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>b5FyFH</t>
+          <t>bjP793</t>
         </is>
       </c>
     </row>
@@ -17058,7 +16990,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>lh5OPA</t>
+          <t>eGCIHt</t>
         </is>
       </c>
     </row>
@@ -17131,7 +17063,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>WmMfXO</t>
+          <t>gmblZo</t>
         </is>
       </c>
     </row>
@@ -17202,7 +17134,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>YuCHqC</t>
+          <t>HEl2c6</t>
         </is>
       </c>
     </row>
@@ -17271,7 +17203,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>ngvhv2</t>
+          <t>UXOZrD</t>
         </is>
       </c>
     </row>
@@ -17340,7 +17272,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>lZcCct</t>
+          <t>xkl2Ah</t>
         </is>
       </c>
     </row>
@@ -17413,7 +17345,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>w2dt25</t>
+          <t>5HtU0x</t>
         </is>
       </c>
     </row>
@@ -17485,7 +17417,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>coZZ6q</t>
+          <t>N63YpR</t>
         </is>
       </c>
     </row>
@@ -17558,7 +17490,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>hAH0QK</t>
+          <t>Jaidun</t>
         </is>
       </c>
     </row>
@@ -17631,7 +17563,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>cdovdV</t>
+          <t>chC8gn</t>
         </is>
       </c>
     </row>
@@ -17704,7 +17636,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>ZptLC4</t>
+          <t>ImtphX</t>
         </is>
       </c>
     </row>
@@ -17773,7 +17705,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>ZxoDCm</t>
+          <t>k3b2rD</t>
         </is>
       </c>
     </row>
@@ -17844,7 +17776,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>ulKLZh</t>
+          <t>YOlRR9</t>
         </is>
       </c>
     </row>
@@ -17915,7 +17847,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>EGIuLz</t>
+          <t>nQUbg0</t>
         </is>
       </c>
     </row>
@@ -17988,7 +17920,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>mTqgXn</t>
+          <t>dVTvzi</t>
         </is>
       </c>
     </row>
@@ -18061,7 +17993,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Ss8sFg</t>
+          <t>5yBfi9</t>
         </is>
       </c>
     </row>
@@ -18134,7 +18066,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2jqjZK</t>
+          <t>MSCrqu</t>
         </is>
       </c>
     </row>
@@ -18207,7 +18139,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>jxcKFS</t>
+          <t>G2ydqg</t>
         </is>
       </c>
     </row>
@@ -18278,7 +18210,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>6B55O8</t>
+          <t>ZXRpUC</t>
         </is>
       </c>
     </row>
@@ -18351,7 +18283,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>aS4OqW</t>
+          <t>ACKRD8</t>
         </is>
       </c>
     </row>
@@ -18424,7 +18356,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>sBtGUF</t>
+          <t>JGp6bi</t>
         </is>
       </c>
     </row>
@@ -18497,7 +18429,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>SX5G1S</t>
+          <t>3owte0</t>
         </is>
       </c>
     </row>
@@ -18568,7 +18500,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>QZKgqD</t>
+          <t>IglZKc</t>
         </is>
       </c>
     </row>
@@ -18641,7 +18573,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>idRrmF</t>
+          <t>iTa1Sr</t>
         </is>
       </c>
     </row>
@@ -18712,7 +18644,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>hVeyzh</t>
+          <t>iko9lg</t>
         </is>
       </c>
     </row>
@@ -18783,7 +18715,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>eUu4nk</t>
+          <t>2ngGPv</t>
         </is>
       </c>
     </row>
@@ -18856,7 +18788,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>rex2xB</t>
+          <t>xdrRpR</t>
         </is>
       </c>
     </row>
@@ -18927,7 +18859,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>8YzItq</t>
+          <t>OrpBuX</t>
         </is>
       </c>
     </row>
@@ -19000,7 +18932,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>1yWvIz</t>
+          <t>Q4RZcD</t>
         </is>
       </c>
     </row>
@@ -19073,7 +19005,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>eieYQZ</t>
+          <t>xvueBf</t>
         </is>
       </c>
     </row>
@@ -19146,7 +19078,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>pAajZS</t>
+          <t>LmLSYJ</t>
         </is>
       </c>
     </row>
@@ -19217,7 +19149,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>LrtG8D</t>
+          <t>lU4kas</t>
         </is>
       </c>
     </row>
@@ -19288,7 +19220,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>tcCdws</t>
+          <t>5NzZZR</t>
         </is>
       </c>
     </row>
@@ -19361,7 +19293,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>MZpExs</t>
+          <t>2hQDQF</t>
         </is>
       </c>
     </row>
@@ -19434,7 +19366,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>hwTIcZ</t>
+          <t>HlCbmv</t>
         </is>
       </c>
     </row>
@@ -19503,7 +19435,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>5vRrul</t>
+          <t>2imFK6</t>
         </is>
       </c>
     </row>
@@ -19576,7 +19508,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>wVetFt</t>
+          <t>o0vcZk</t>
         </is>
       </c>
     </row>
@@ -19650,7 +19582,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>PXBt4X</t>
+          <t>fQg08A</t>
         </is>
       </c>
     </row>
@@ -19723,7 +19655,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>38TMo0</t>
+          <t>eFIZpD</t>
         </is>
       </c>
     </row>
@@ -19796,7 +19728,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>1ML15m</t>
+          <t>z3uHzh</t>
         </is>
       </c>
     </row>
@@ -19869,7 +19801,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>qfeeDi</t>
+          <t>T4V0Ce</t>
         </is>
       </c>
     </row>
@@ -19942,7 +19874,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>mIxTv4</t>
+          <t>AiM1ii</t>
         </is>
       </c>
     </row>
@@ -20015,7 +19947,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>s6J4Cy</t>
+          <t>GL27nn</t>
         </is>
       </c>
     </row>
@@ -20086,7 +20018,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>u2fD72</t>
+          <t>q3F3Ty</t>
         </is>
       </c>
     </row>
@@ -20155,11 +20087,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>gAIzH3</t>
+          <t>LeMVsX</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>